--- a/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
+++ b/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Stable Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49094CBE-9B1D-2C43-83DD-234149C6293D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978083C-2E6E-D047-B9DC-19837833ADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="26300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="26300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
     <sheet name="Molecular Function" sheetId="2" r:id="rId2"/>
     <sheet name="Cellular Component" sheetId="3" r:id="rId3"/>
+    <sheet name="Final Table Stable" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -17311,7 +17312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -22015,4 +22016,18 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711B38D6-785F-3C44-BEBA-4A228AC3F29E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
+++ b/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Stable Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978083C-2E6E-D047-B9DC-19837833ADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC73D11-329D-3543-9900-1587D59DBA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="26300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="1780" windowWidth="50880" windowHeight="26300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
     <sheet name="Molecular Function" sheetId="2" r:id="rId2"/>
     <sheet name="Cellular Component" sheetId="3" r:id="rId3"/>
-    <sheet name="Final Table Stable" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2976,7 +2975,7 @@
   <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20434,8 +20433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22016,18 +22015,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711B38D6-785F-3C44-BEBA-4A228AC3F29E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
+++ b/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Stable Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC73D11-329D-3543-9900-1587D59DBA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE641D4-C0DA-4842-A708-8F1E1940AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1780" windowWidth="50880" windowHeight="26300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="1440" windowWidth="46300" windowHeight="26300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
@@ -2974,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O487"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -17311,8 +17311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20433,8 +20433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
+++ b/gene_ontology_analysis_miRNA/Stable Genes Analyzed/mouse_go_analysis_results_miRNA_stable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Stable Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE641D4-C0DA-4842-A708-8F1E1940AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E1D701-C74A-4E47-9ED8-34B12B7979D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1440" windowWidth="46300" windowHeight="26300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="9520" windowWidth="46300" windowHeight="26300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
@@ -2975,7 +2975,7 @@
   <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17311,8 +17311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:F97"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20433,7 +20433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
